--- a/ETH_MIKE_Characterisation/3_dynamic_friction_velocities.xlsx
+++ b/ETH_MIKE_Characterisation/3_dynamic_friction_velocities.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C982AECE24B3704D9D3A9494BBA8376C2FA91DBD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="More Details" sheetId="1" r:id="rId1"/>
     <sheet name="Less Details" sheetId="2" r:id="rId2"/>
     <sheet name="181218" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -189,7 +199,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,22 +476,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -525,7 +535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -540,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -555,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -570,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -585,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -600,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -615,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>40</v>
       </c>
@@ -630,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -645,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -660,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>55</v>
       </c>
@@ -675,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60</v>
       </c>
@@ -690,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>65</v>
       </c>
@@ -705,7 +715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>70</v>
       </c>
@@ -720,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>75</v>
       </c>
@@ -735,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>80</v>
       </c>
@@ -750,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>85</v>
       </c>
@@ -765,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>90</v>
       </c>
@@ -780,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>95</v>
       </c>
@@ -795,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -810,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>105</v>
       </c>
@@ -825,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>110</v>
       </c>
@@ -840,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>115</v>
       </c>
@@ -855,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>120</v>
       </c>
@@ -870,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>125</v>
       </c>
@@ -885,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>130</v>
       </c>
@@ -900,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>135</v>
       </c>
@@ -915,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>140</v>
       </c>
@@ -930,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>145</v>
       </c>
@@ -945,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>150</v>
       </c>
@@ -960,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>155</v>
       </c>
@@ -975,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>160</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>165</v>
       </c>
@@ -1005,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>170</v>
       </c>
@@ -1020,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>175</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>180</v>
       </c>
@@ -1050,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>185</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>190</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>195</v>
       </c>
@@ -1095,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>200</v>
       </c>
@@ -1110,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>205</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>210</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>215</v>
       </c>
@@ -1155,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>220</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>225</v>
       </c>
@@ -1185,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>230</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>235</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>240</v>
       </c>
@@ -1230,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>245</v>
       </c>
@@ -1245,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>250</v>
       </c>
@@ -1260,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>255</v>
       </c>
@@ -1275,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>260</v>
       </c>
@@ -1290,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>265</v>
       </c>
@@ -1305,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>270</v>
       </c>
@@ -1320,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>275</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>280</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>285</v>
       </c>
@@ -1365,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>290</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>295</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>300</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>305</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>310</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>315</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>320</v>
       </c>
@@ -1470,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>325</v>
       </c>
@@ -1485,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>330</v>
       </c>
@@ -1500,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>335</v>
       </c>
@@ -1515,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>340</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>345</v>
       </c>
@@ -1545,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>350</v>
       </c>
@@ -1560,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>355</v>
       </c>
@@ -1575,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>360</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>365</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>370</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>375</v>
       </c>
@@ -1635,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>380</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>385</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>390</v>
       </c>
@@ -1680,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>395</v>
       </c>
@@ -1695,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>400</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>405</v>
       </c>
@@ -1725,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>410</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>415</v>
       </c>
@@ -1755,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>420</v>
       </c>
@@ -1770,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>425</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>430</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>435</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>440</v>
       </c>
@@ -1830,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>445</v>
       </c>
@@ -1845,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>450</v>
       </c>
@@ -1860,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>455</v>
       </c>
@@ -1875,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>460</v>
       </c>
@@ -1890,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>465</v>
       </c>
@@ -1905,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>470</v>
       </c>
@@ -1920,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>475</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>480</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>485</v>
       </c>
@@ -1965,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>490</v>
       </c>
@@ -1980,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>495</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>500</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>520</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>540</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>560</v>
       </c>
@@ -2058,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>580</v>
       </c>
@@ -2073,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>600</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>620</v>
       </c>
@@ -2103,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>640</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>660</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>680</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>700</v>
       </c>
@@ -2163,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>720</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>740</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>760</v>
       </c>
@@ -2208,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>780</v>
       </c>
@@ -2223,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>800</v>
       </c>
@@ -2238,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>820</v>
       </c>
@@ -2250,7 +2260,7 @@
         <v>0.12195121951219512</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>840</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>860</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>0.11627906976744186</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>880</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>0.11363636363636363</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>900</v>
       </c>
@@ -2298,7 +2308,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>920</v>
       </c>
@@ -2310,7 +2320,7 @@
         <v>0.10869565217391304</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>940</v>
       </c>
@@ -2322,7 +2332,7 @@
         <v>0.10638297872340426</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>960</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>980</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>0.10204081632653061</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1000</v>
       </c>
@@ -2358,7 +2368,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="C128" s="1"/>
     </row>
@@ -2368,22 +2378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2409,7 +2419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2421,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>40</v>
       </c>
@@ -2433,7 +2443,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>80</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -2469,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>120</v>
       </c>
@@ -2481,7 +2491,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>140</v>
       </c>
@@ -2493,7 +2503,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>160</v>
       </c>
@@ -2505,7 +2515,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>220</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>240</v>
       </c>
@@ -2553,7 +2563,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>260</v>
       </c>
@@ -2565,7 +2575,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>280</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>300</v>
       </c>
@@ -2589,7 +2599,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>320</v>
       </c>
@@ -2601,7 +2611,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>340</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>360</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>380</v>
       </c>
@@ -2637,7 +2647,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>400</v>
       </c>
@@ -2649,7 +2659,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>420</v>
       </c>
@@ -2661,7 +2671,7 @@
         <v>0.23809523809523808</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>440</v>
       </c>
@@ -2673,7 +2683,7 @@
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>460</v>
       </c>
@@ -2685,7 +2695,7 @@
         <v>0.21739130434782608</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>480</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>500</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>200</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>250</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>300</v>
       </c>
@@ -2754,7 +2764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>350</v>
       </c>
@@ -2769,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>400</v>
       </c>
@@ -2784,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>450</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>500</v>
       </c>
@@ -2814,7 +2824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>550</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>600</v>
       </c>
@@ -2844,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>650</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>700</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>750</v>
       </c>
@@ -2889,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="17">
         <v>-200</v>
       </c>
@@ -2897,7 +2907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>-250</v>
       </c>
@@ -2912,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>-300</v>
       </c>
@@ -2927,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>-350</v>
       </c>
@@ -2942,7 +2952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>-400</v>
       </c>
@@ -2957,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>-450</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>-500</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>-550</v>
       </c>
@@ -3002,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>-600</v>
       </c>
@@ -3017,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>-650</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>-700</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>-750</v>
       </c>
@@ -3068,20 +3078,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D35"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -3119,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>150</v>
       </c>
@@ -3143,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>200</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>300</v>
       </c>
@@ -3188,7 +3198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>350</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>400</v>
       </c>
@@ -3218,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>450</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>500</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>550</v>
       </c>
@@ -3263,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>600</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>650</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>700</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>750</v>
       </c>
@@ -3323,7 +3333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>800</v>
       </c>
@@ -3335,13 +3345,13 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-1</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-50</v>
       </c>
@@ -3365,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-100</v>
       </c>
@@ -3377,7 +3387,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-150</v>
       </c>
@@ -3389,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-200</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-250</v>
       </c>
@@ -3419,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-300</v>
       </c>
@@ -3434,7 +3444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-350</v>
       </c>
@@ -3449,7 +3459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-400</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-450</v>
       </c>
@@ -3479,7 +3489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-500</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-550</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-600</v>
       </c>
@@ -3524,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>-650</v>
       </c>
@@ -3539,7 +3549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>-700</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>-750</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-800</v>
       </c>
